--- a/Docs/расчеты модели.xlsx
+++ b/Docs/расчеты модели.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cf\projects\SMALL_PROJECTS\DiplomaStatsCounter\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81606800-B8E2-41FF-B724-15DECB72E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64166A0A-51D5-4E5D-A91C-87A30089F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9405" yWindow="1395" windowWidth="16035" windowHeight="11430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="вихідні дані з програми plc" sheetId="7" r:id="rId1"/>
@@ -48,38 +48,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,10 +1385,10 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,14 +1397,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9827,74 +9795,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <fb t="e">#NAME?</fb>
-    <v>4</v>
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <fb t="e">#NAME?</fb>
-    <v>4</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -13123,8 +13023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15663,7 +15563,7 @@
       <c r="A68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="8" t="e" vm="1">
+      <c r="B68" s="8" t="e">
         <f ca="1">_xludf._xlfn.F.DIST.RT(B60,B8,B6-B7)</f>
         <v>#NAME?</v>
       </c>
@@ -15672,7 +15572,7 @@
       <c r="A69" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="8" t="e" vm="2">
+      <c r="B69" s="8" t="e">
         <f ca="1">B68&lt;B62</f>
         <v>#NAME?</v>
       </c>
@@ -15816,7 +15716,7 @@
         <f t="shared" si="11"/>
         <v>0.71561809876007787</v>
       </c>
-      <c r="G83" s="24" t="e" vm="1">
+      <c r="G83" s="24" t="e">
         <f ca="1">-_xludf._xlfn.T.INV(B62/2,B9)</f>
         <v>#NAME?</v>
       </c>
@@ -15859,7 +15759,7 @@
       </c>
       <c r="E86" s="113"/>
       <c r="F86" s="27"/>
-      <c r="H86" s="8" t="e" vm="1">
+      <c r="H86" s="8" t="e">
         <f ca="1">_xludf._xlfn.T.DIST.2T(ABS(D86),$B$6-$B$7)</f>
         <v>#NAME?</v>
       </c>
@@ -15883,7 +15783,7 @@
         <v>7.3650214258716753</v>
       </c>
       <c r="E87" s="113"/>
-      <c r="H87" s="8" t="e" vm="1">
+      <c r="H87" s="8" t="e">
         <f ca="1">_xludf._xlfn.T.DIST.2T(ABS(D87),$B$6-$B$7)</f>
         <v>#NAME?</v>
       </c>
@@ -15907,7 +15807,7 @@
         <v>0.67307484585404298</v>
       </c>
       <c r="E88" s="113"/>
-      <c r="H88" s="8" t="e" vm="1">
+      <c r="H88" s="8" t="e">
         <f ca="1">_xludf._xlfn.T.DIST.2T(ABS(D88),$B$6-$B$7)</f>
         <v>#NAME?</v>
       </c>
@@ -16070,7 +15970,7 @@
         <f>D107/D108</f>
         <v>25.372958232460952</v>
       </c>
-      <c r="F107" s="34" t="e" vm="1">
+      <c r="F107" s="34" t="e">
         <f ca="1">_xludf._xlfn.F.DIST.RT(E107,B107,B108)</f>
         <v>#NAME?</v>
       </c>
@@ -16161,7 +16061,7 @@
         <f>D86</f>
         <v>5.8161611259299466</v>
       </c>
-      <c r="E115" s="45" t="e" vm="1">
+      <c r="E115" s="45" t="e">
         <f ca="1">_xludf._xlfn.T.DIST.2T(D115,$B$9)</f>
         <v>#NAME?</v>
       </c>
@@ -16182,7 +16082,7 @@
         <f>D87</f>
         <v>7.3650214258716753</v>
       </c>
-      <c r="E116" s="45" t="e" vm="1">
+      <c r="E116" s="45" t="e">
         <f ca="1">_xludf._xlfn.T.DIST.2T(D116,$B$9)</f>
         <v>#NAME?</v>
       </c>
@@ -16203,7 +16103,7 @@
         <f>D88</f>
         <v>0.67307484585404298</v>
       </c>
-      <c r="E117" s="45" t="e" vm="1">
+      <c r="E117" s="45" t="e">
         <f ca="1">_xludf._xlfn.T.DIST.2T(D117,$B$9)</f>
         <v>#NAME?</v>
       </c>
@@ -16265,7 +16165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD117"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="S33" sqref="S32:S33"/>
     </sheetView>
   </sheetViews>
@@ -16809,15 +16709,15 @@
       <c r="A21" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="70" t="e" vm="1">
+      <c r="B21" s="70" t="e">
         <f ca="1">_xludf._xlfn.STDEV.S(B$36:B$60)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C21" s="70" t="e" vm="1">
+      <c r="C21" s="70" t="e">
         <f ca="1">_xludf._xlfn.STDEV.S(C$36:C$60)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="70" t="e" vm="1">
+      <c r="D21" s="70" t="e">
         <f ca="1">_xludf._xlfn.STDEV.S(D$36:D$60)</f>
         <v>#NAME?</v>
       </c>
@@ -17131,29 +17031,29 @@
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
-      <c r="G34" s="116" t="s">
+      <c r="G34" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
       <c r="Q34" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="121" t="s">
+      <c r="V34" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="121"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="116"/>
+      <c r="AB34" s="116"/>
+      <c r="AC34" s="116"/>
     </row>
     <row r="35" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
@@ -17609,20 +17509,20 @@
         <f>Модель!I24</f>
         <v>2.4548448600085102</v>
       </c>
-      <c r="G48" s="120" t="str">
+      <c r="G48" s="119" t="str">
         <f>D35</f>
         <v>X2</v>
       </c>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120" t="str">
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="119" t="str">
         <f>C35</f>
         <v>X1</v>
       </c>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
       <c r="Q48" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17635,20 +17535,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V48" s="120" t="str">
+      <c r="V48" s="119" t="str">
         <f>S35</f>
         <v>X2</v>
       </c>
-      <c r="W48" s="120"/>
-      <c r="X48" s="120"/>
-      <c r="Y48" s="120"/>
-      <c r="Z48" s="120" t="str">
+      <c r="W48" s="119"/>
+      <c r="X48" s="119"/>
+      <c r="Y48" s="119"/>
+      <c r="Z48" s="119" t="str">
         <f>R35</f>
         <v>X1</v>
       </c>
-      <c r="AA48" s="120"/>
-      <c r="AB48" s="120"/>
-      <c r="AC48" s="120"/>
+      <c r="AA48" s="119"/>
+      <c r="AB48" s="119"/>
+      <c r="AC48" s="119"/>
     </row>
     <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="85">
@@ -17670,7 +17570,7 @@
         <f>B35</f>
         <v>Y</v>
       </c>
-      <c r="O49" s="119" t="str">
+      <c r="O49" s="120" t="str">
         <f>D35</f>
         <v>X2</v>
       </c>
@@ -17686,11 +17586,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U49" s="119" t="str">
+      <c r="U49" s="120" t="str">
         <f>Q35</f>
         <v>Y</v>
       </c>
-      <c r="AD49" s="115" t="str">
+      <c r="AD49" s="121" t="str">
         <f>S35</f>
         <v>X2</v>
       </c>
@@ -17712,7 +17612,7 @@
         <v>2.2671717284030137</v>
       </c>
       <c r="F50" s="118"/>
-      <c r="O50" s="119"/>
+      <c r="O50" s="120"/>
       <c r="Q50" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17725,8 +17625,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U50" s="119"/>
-      <c r="AD50" s="115"/>
+      <c r="U50" s="120"/>
+      <c r="AD50" s="121"/>
     </row>
     <row r="51" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="85">
@@ -17745,7 +17645,7 @@
         <v>2.6857417386022635</v>
       </c>
       <c r="F51" s="118"/>
-      <c r="O51" s="119"/>
+      <c r="O51" s="120"/>
       <c r="Q51" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17758,8 +17658,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U51" s="119"/>
-      <c r="AD51" s="115"/>
+      <c r="U51" s="120"/>
+      <c r="AD51" s="121"/>
     </row>
     <row r="52" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="85">
@@ -17778,7 +17678,7 @@
         <v>2.6946051989335689</v>
       </c>
       <c r="F52" s="118"/>
-      <c r="O52" s="119"/>
+      <c r="O52" s="120"/>
       <c r="Q52" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17791,8 +17691,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U52" s="119"/>
-      <c r="AD52" s="115"/>
+      <c r="U52" s="120"/>
+      <c r="AD52" s="121"/>
     </row>
     <row r="53" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="85">
@@ -17811,7 +17711,7 @@
         <v>2.4785664955938436</v>
       </c>
       <c r="F53" s="118"/>
-      <c r="O53" s="119"/>
+      <c r="O53" s="120"/>
       <c r="Q53" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17824,8 +17724,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U53" s="119"/>
-      <c r="AD53" s="115"/>
+      <c r="U53" s="120"/>
+      <c r="AD53" s="121"/>
     </row>
     <row r="54" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="85">
@@ -17844,7 +17744,7 @@
         <v>2.5415792439465807</v>
       </c>
       <c r="F54" s="118"/>
-      <c r="O54" s="119"/>
+      <c r="O54" s="120"/>
       <c r="Q54" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17857,8 +17757,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U54" s="119"/>
-      <c r="AD54" s="115"/>
+      <c r="U54" s="120"/>
+      <c r="AD54" s="121"/>
     </row>
     <row r="55" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="85">
@@ -17877,7 +17777,7 @@
         <v>2.6720978579357175</v>
       </c>
       <c r="F55" s="118"/>
-      <c r="O55" s="119"/>
+      <c r="O55" s="120"/>
       <c r="Q55" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17890,8 +17790,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U55" s="119"/>
-      <c r="AD55" s="115"/>
+      <c r="U55" s="120"/>
+      <c r="AD55" s="121"/>
     </row>
     <row r="56" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="85">
@@ -17910,7 +17810,7 @@
         <v>2.651278013998144</v>
       </c>
       <c r="F56" s="118"/>
-      <c r="O56" s="119"/>
+      <c r="O56" s="120"/>
       <c r="Q56" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17923,8 +17823,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U56" s="119"/>
-      <c r="AD56" s="115"/>
+      <c r="U56" s="120"/>
+      <c r="AD56" s="121"/>
     </row>
     <row r="57" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="85">
@@ -17943,7 +17843,7 @@
         <v>2.5314789170422549</v>
       </c>
       <c r="F57" s="118"/>
-      <c r="O57" s="119"/>
+      <c r="O57" s="120"/>
       <c r="Q57" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17956,8 +17856,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U57" s="119"/>
-      <c r="AD57" s="115"/>
+      <c r="U57" s="120"/>
+      <c r="AD57" s="121"/>
     </row>
     <row r="58" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="85">
@@ -17976,7 +17876,7 @@
         <v>2.5587085705331658</v>
       </c>
       <c r="F58" s="118"/>
-      <c r="O58" s="119"/>
+      <c r="O58" s="120"/>
       <c r="Q58" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17989,8 +17889,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U58" s="119"/>
-      <c r="AD58" s="115"/>
+      <c r="U58" s="120"/>
+      <c r="AD58" s="121"/>
     </row>
     <row r="59" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="85">
@@ -18009,7 +17909,7 @@
         <v>2.5751878449276608</v>
       </c>
       <c r="F59" s="118"/>
-      <c r="O59" s="119"/>
+      <c r="O59" s="120"/>
       <c r="Q59" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -18022,8 +17922,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U59" s="119"/>
-      <c r="AD59" s="115"/>
+      <c r="U59" s="120"/>
+      <c r="AD59" s="121"/>
     </row>
     <row r="60" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="85">
@@ -18042,7 +17942,7 @@
         <v>2.6646419755561257</v>
       </c>
       <c r="F60" s="118"/>
-      <c r="O60" s="119"/>
+      <c r="O60" s="120"/>
       <c r="Q60" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -18055,8 +17955,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U60" s="119"/>
-      <c r="AD60" s="115"/>
+      <c r="U60" s="120"/>
+      <c r="AD60" s="121"/>
     </row>
     <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="85">
@@ -18076,9 +17976,9 @@
         <v>2.4727564493172123</v>
       </c>
       <c r="F61" s="118"/>
-      <c r="O61" s="119"/>
-      <c r="U61" s="119"/>
-      <c r="AD61" s="115"/>
+      <c r="O61" s="120"/>
+      <c r="U61" s="120"/>
+      <c r="AD61" s="121"/>
     </row>
     <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="85">
@@ -18115,16 +18015,16 @@
         <f>Модель!I39</f>
         <v>2.6560982020128319</v>
       </c>
-      <c r="G63" s="116" t="s">
+      <c r="G63" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
+      <c r="H63" s="115"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="115"/>
+      <c r="L63" s="115"/>
+      <c r="M63" s="115"/>
+      <c r="N63" s="115"/>
       <c r="Q63" t="s">
         <v>131</v>
       </c>
@@ -18184,15 +18084,15 @@
         <f>B92</f>
         <v>Y</v>
       </c>
-      <c r="Q65" s="73" t="e" vm="2">
+      <c r="Q65" s="73" t="e">
         <f t="shared" ref="Q65:Q89" ca="1" si="6">C93</f>
         <v>#NAME?</v>
       </c>
-      <c r="R65" s="73" t="e" vm="2">
+      <c r="R65" s="73" t="e">
         <f t="shared" ref="R65:R89" ca="1" si="7">D93</f>
         <v>#NAME?</v>
       </c>
-      <c r="S65" s="73" t="e" vm="2">
+      <c r="S65" s="73" t="e">
         <f t="shared" ref="S65:S89" ca="1" si="8">B93-$C$28</f>
         <v>#NAME?</v>
       </c>
@@ -18215,15 +18115,15 @@
         <v>2.4166405073382808</v>
       </c>
       <c r="F66" s="118"/>
-      <c r="Q66" s="73" t="e" vm="2">
+      <c r="Q66" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R66" s="73" t="e" vm="2">
+      <c r="R66" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S66" s="73" t="e" vm="2">
+      <c r="S66" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18246,15 +18146,15 @@
         <v>2.5340261060561349</v>
       </c>
       <c r="F67" s="118"/>
-      <c r="Q67" s="73" t="e" vm="2">
+      <c r="Q67" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R67" s="73" t="e" vm="2">
+      <c r="R67" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S67" s="73" t="e" vm="2">
+      <c r="S67" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18277,15 +18177,15 @@
         <v>2.4424797690644486</v>
       </c>
       <c r="F68" s="118"/>
-      <c r="Q68" s="73" t="e" vm="2">
+      <c r="Q68" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R68" s="73" t="e" vm="2">
+      <c r="R68" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S68" s="73" t="e" vm="2">
+      <c r="S68" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18308,15 +18208,15 @@
         <v>2.2174839442139063</v>
       </c>
       <c r="F69" s="118"/>
-      <c r="Q69" s="73" t="e" vm="2">
+      <c r="Q69" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R69" s="73" t="e" vm="2">
+      <c r="R69" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S69" s="73" t="e" vm="2">
+      <c r="S69" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18327,15 +18227,15 @@
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
       <c r="F70" s="118"/>
-      <c r="Q70" s="73" t="e" vm="2">
+      <c r="Q70" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R70" s="73" t="e" vm="2">
+      <c r="R70" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S70" s="73" t="e" vm="2">
+      <c r="S70" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18346,15 +18246,15 @@
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
       <c r="F71" s="118"/>
-      <c r="Q71" s="73" t="e" vm="2">
+      <c r="Q71" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R71" s="73" t="e" vm="2">
+      <c r="R71" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S71" s="73" t="e" vm="2">
+      <c r="S71" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18365,89 +18265,89 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="F72" s="118"/>
-      <c r="Q72" s="73" t="e" vm="2">
+      <c r="Q72" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R72" s="73" t="e" vm="2">
+      <c r="R72" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S72" s="73" t="e" vm="2">
+      <c r="S72" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F73" s="118"/>
-      <c r="Q73" s="73" t="e" vm="2">
+      <c r="Q73" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R73" s="73" t="e" vm="2">
+      <c r="R73" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S73" s="73" t="e" vm="2">
+      <c r="S73" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F74" s="118"/>
-      <c r="Q74" s="73" t="e" vm="2">
+      <c r="Q74" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R74" s="73" t="e" vm="2">
+      <c r="R74" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S74" s="73" t="e" vm="2">
+      <c r="S74" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F75" s="118"/>
-      <c r="Q75" s="73" t="e" vm="2">
+      <c r="Q75" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R75" s="73" t="e" vm="2">
+      <c r="R75" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S75" s="73" t="e" vm="2">
+      <c r="S75" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F76" s="118"/>
-      <c r="Q76" s="73" t="e" vm="2">
+      <c r="Q76" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R76" s="73" t="e" vm="2">
+      <c r="R76" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S76" s="73" t="e" vm="2">
+      <c r="S76" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="Q77" s="73" t="e" vm="2">
+      <c r="Q77" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R77" s="73" t="e" vm="2">
+      <c r="R77" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S77" s="73" t="e" vm="2">
+      <c r="S77" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18457,202 +18357,202 @@
         <f>B92</f>
         <v>Y</v>
       </c>
-      <c r="O78" s="119" t="str">
+      <c r="O78" s="120" t="str">
         <f>D92</f>
         <v>X2</v>
       </c>
-      <c r="Q78" s="73" t="e" vm="2">
+      <c r="Q78" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R78" s="73" t="e" vm="2">
+      <c r="R78" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S78" s="73" t="e" vm="2">
+      <c r="S78" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F79" s="118"/>
-      <c r="O79" s="119"/>
-      <c r="Q79" s="73" t="e" vm="2">
+      <c r="O79" s="120"/>
+      <c r="Q79" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R79" s="73" t="e" vm="2">
+      <c r="R79" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S79" s="73" t="e" vm="2">
+      <c r="S79" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F80" s="118"/>
-      <c r="O80" s="119"/>
-      <c r="Q80" s="73" t="e" vm="2">
+      <c r="O80" s="120"/>
+      <c r="Q80" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R80" s="73" t="e" vm="2">
+      <c r="R80" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S80" s="73" t="e" vm="2">
+      <c r="S80" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F81" s="118"/>
-      <c r="O81" s="119"/>
-      <c r="Q81" s="73" t="e" vm="2">
+      <c r="O81" s="120"/>
+      <c r="Q81" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R81" s="73" t="e" vm="2">
+      <c r="R81" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S81" s="73" t="e" vm="2">
+      <c r="S81" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F82" s="118"/>
-      <c r="O82" s="119"/>
-      <c r="Q82" s="73" t="e" vm="2">
+      <c r="O82" s="120"/>
+      <c r="Q82" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R82" s="73" t="e" vm="2">
+      <c r="R82" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S82" s="73" t="e" vm="2">
+      <c r="S82" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F83" s="118"/>
-      <c r="O83" s="119"/>
-      <c r="Q83" s="73" t="e" vm="2">
+      <c r="O83" s="120"/>
+      <c r="Q83" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R83" s="73" t="e" vm="2">
+      <c r="R83" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S83" s="73" t="e" vm="2">
+      <c r="S83" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F84" s="118"/>
-      <c r="O84" s="119"/>
-      <c r="Q84" s="73" t="e" vm="2">
+      <c r="O84" s="120"/>
+      <c r="Q84" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R84" s="73" t="e" vm="2">
+      <c r="R84" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S84" s="73" t="e" vm="2">
+      <c r="S84" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F85" s="118"/>
-      <c r="O85" s="119"/>
-      <c r="Q85" s="73" t="e" vm="2">
+      <c r="O85" s="120"/>
+      <c r="Q85" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R85" s="73" t="e" vm="2">
+      <c r="R85" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S85" s="73" t="e" vm="2">
+      <c r="S85" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F86" s="118"/>
-      <c r="O86" s="119"/>
-      <c r="Q86" s="73" t="e" vm="2">
+      <c r="O86" s="120"/>
+      <c r="Q86" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R86" s="73" t="e" vm="2">
+      <c r="R86" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S86" s="73" t="e" vm="2">
+      <c r="S86" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F87" s="118"/>
-      <c r="O87" s="119"/>
-      <c r="Q87" s="73" t="e" vm="2">
+      <c r="O87" s="120"/>
+      <c r="Q87" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R87" s="73" t="e" vm="2">
+      <c r="R87" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S87" s="73" t="e" vm="2">
+      <c r="S87" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F88" s="118"/>
-      <c r="O88" s="119"/>
-      <c r="Q88" s="73" t="e" vm="2">
+      <c r="O88" s="120"/>
+      <c r="Q88" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R88" s="73" t="e" vm="2">
+      <c r="R88" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S88" s="73" t="e" vm="2">
+      <c r="S88" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F89" s="118"/>
-      <c r="O89" s="119"/>
-      <c r="Q89" s="73" t="e" vm="2">
+      <c r="O89" s="120"/>
+      <c r="Q89" s="73" t="e">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R89" s="73" t="e" vm="2">
+      <c r="R89" s="73" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S89" s="73" t="e" vm="2">
+      <c r="S89" s="73" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F90" s="118"/>
-      <c r="O90" s="119"/>
+      <c r="O90" s="120"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -18696,15 +18596,15 @@
         <f t="shared" ref="A93:A117" si="9">A36</f>
         <v>1</v>
       </c>
-      <c r="B93" s="73" t="e" vm="2">
+      <c r="B93" s="73" t="e">
         <f t="shared" ref="B93:D117" ca="1" si="10">(B36-B$20)/B$21</f>
         <v>#NAME?</v>
       </c>
-      <c r="C93" s="73" t="e" vm="2">
+      <c r="C93" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D93" s="73" t="e" vm="2">
+      <c r="D93" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18729,15 +18629,15 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B94" s="73" t="e" vm="2">
+      <c r="B94" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C94" s="73" t="e" vm="2">
+      <c r="C94" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D94" s="73" t="e" vm="2">
+      <c r="D94" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18762,15 +18662,15 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="B95" s="73" t="e" vm="2">
+      <c r="B95" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C95" s="73" t="e" vm="2">
+      <c r="C95" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D95" s="73" t="e" vm="2">
+      <c r="D95" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18795,15 +18695,15 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B96" s="73" t="e" vm="2">
+      <c r="B96" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C96" s="73" t="e" vm="2">
+      <c r="C96" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D96" s="73" t="e" vm="2">
+      <c r="D96" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18828,15 +18728,15 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="B97" s="73" t="e" vm="2">
+      <c r="B97" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C97" s="73" t="e" vm="2">
+      <c r="C97" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D97" s="73" t="e" vm="2">
+      <c r="D97" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18861,15 +18761,15 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B98" s="73" t="e" vm="2">
+      <c r="B98" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C98" s="73" t="e" vm="2">
+      <c r="C98" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D98" s="73" t="e" vm="2">
+      <c r="D98" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18894,15 +18794,15 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="B99" s="73" t="e" vm="2">
+      <c r="B99" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C99" s="73" t="e" vm="2">
+      <c r="C99" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D99" s="73" t="e" vm="2">
+      <c r="D99" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18927,15 +18827,15 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="B100" s="73" t="e" vm="2">
+      <c r="B100" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C100" s="73" t="e" vm="2">
+      <c r="C100" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D100" s="73" t="e" vm="2">
+      <c r="D100" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18960,15 +18860,15 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="B101" s="73" t="e" vm="2">
+      <c r="B101" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C101" s="73" t="e" vm="2">
+      <c r="C101" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D101" s="73" t="e" vm="2">
+      <c r="D101" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18993,15 +18893,15 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B102" s="73" t="e" vm="2">
+      <c r="B102" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C102" s="73" t="e" vm="2">
+      <c r="C102" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D102" s="73" t="e" vm="2">
+      <c r="D102" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19026,15 +18926,15 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="B103" s="73" t="e" vm="2">
+      <c r="B103" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C103" s="73" t="e" vm="2">
+      <c r="C103" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D103" s="73" t="e" vm="2">
+      <c r="D103" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19059,15 +18959,15 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="B104" s="73" t="e" vm="2">
+      <c r="B104" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C104" s="73" t="e" vm="2">
+      <c r="C104" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D104" s="73" t="e" vm="2">
+      <c r="D104" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19092,15 +18992,15 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="B105" s="73" t="e" vm="2">
+      <c r="B105" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C105" s="73" t="e" vm="2">
+      <c r="C105" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D105" s="73" t="e" vm="2">
+      <c r="D105" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19125,15 +19025,15 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="B106" s="73" t="e" vm="2">
+      <c r="B106" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C106" s="73" t="e" vm="2">
+      <c r="C106" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D106" s="73" t="e" vm="2">
+      <c r="D106" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19158,15 +19058,15 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="B107" s="73" t="e" vm="2">
+      <c r="B107" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C107" s="73" t="e" vm="2">
+      <c r="C107" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D107" s="73" t="e" vm="2">
+      <c r="D107" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19191,15 +19091,15 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="B108" s="73" t="e" vm="2">
+      <c r="B108" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C108" s="73" t="e" vm="2">
+      <c r="C108" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D108" s="73" t="e" vm="2">
+      <c r="D108" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19224,15 +19124,15 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="B109" s="73" t="e" vm="2">
+      <c r="B109" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C109" s="73" t="e" vm="2">
+      <c r="C109" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D109" s="73" t="e" vm="2">
+      <c r="D109" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19257,15 +19157,15 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="B110" s="73" t="e" vm="2">
+      <c r="B110" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C110" s="73" t="e" vm="2">
+      <c r="C110" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D110" s="73" t="e" vm="2">
+      <c r="D110" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19290,15 +19190,15 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="B111" s="73" t="e" vm="2">
+      <c r="B111" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C111" s="73" t="e" vm="2">
+      <c r="C111" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D111" s="73" t="e" vm="2">
+      <c r="D111" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19323,15 +19223,15 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="B112" s="73" t="e" vm="2">
+      <c r="B112" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C112" s="73" t="e" vm="2">
+      <c r="C112" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D112" s="73" t="e" vm="2">
+      <c r="D112" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19356,15 +19256,15 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="B113" s="73" t="e" vm="2">
+      <c r="B113" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C113" s="73" t="e" vm="2">
+      <c r="C113" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D113" s="73" t="e" vm="2">
+      <c r="D113" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19389,15 +19289,15 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="B114" s="73" t="e" vm="2">
+      <c r="B114" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C114" s="73" t="e" vm="2">
+      <c r="C114" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D114" s="73" t="e" vm="2">
+      <c r="D114" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19422,15 +19322,15 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="B115" s="73" t="e" vm="2">
+      <c r="B115" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C115" s="73" t="e" vm="2">
+      <c r="C115" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D115" s="73" t="e" vm="2">
+      <c r="D115" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19455,15 +19355,15 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="B116" s="73" t="e" vm="2">
+      <c r="B116" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C116" s="73" t="e" vm="2">
+      <c r="C116" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D116" s="73" t="e" vm="2">
+      <c r="D116" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19488,15 +19388,15 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="B117" s="73" t="e" vm="2">
+      <c r="B117" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C117" s="73" t="e" vm="2">
+      <c r="C117" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D117" s="73" t="e" vm="2">
+      <c r="D117" s="73" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19518,12 +19418,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="V34:AC34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="F36:F47"/>
-    <mergeCell ref="U36:U47"/>
+    <mergeCell ref="AD49:AD61"/>
+    <mergeCell ref="G63:N63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="F65:F76"/>
+    <mergeCell ref="F78:F90"/>
+    <mergeCell ref="O78:O90"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="V48:Y48"/>
@@ -19531,12 +19431,12 @@
     <mergeCell ref="F49:F61"/>
     <mergeCell ref="O49:O61"/>
     <mergeCell ref="U49:U61"/>
-    <mergeCell ref="AD49:AD61"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="F65:F76"/>
-    <mergeCell ref="F78:F90"/>
-    <mergeCell ref="O78:O90"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="V34:AC34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="F36:F47"/>
+    <mergeCell ref="U36:U47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -19553,7 +19453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>

--- a/Docs/расчеты модели.xlsx
+++ b/Docs/расчеты модели.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cf\projects\SMALL_PROJECTS\DiplomaStatsCounter\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64166A0A-51D5-4E5D-A91C-87A30089F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3680CB-2EEA-4AFF-BE00-A39DCF36EAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9405" yWindow="1395" windowWidth="16035" windowHeight="11430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="вихідні дані з програми plc" sheetId="7" r:id="rId1"/>
@@ -48,6 +48,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,10 +1417,10 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,14 +1429,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9795,6 +9827,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -10060,7 +10160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView topLeftCell="H70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
@@ -13023,8 +13123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15563,7 +15663,7 @@
       <c r="A68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="8" t="e">
+      <c r="B68" s="8" t="e" vm="1">
         <f ca="1">_xludf._xlfn.F.DIST.RT(B60,B8,B6-B7)</f>
         <v>#NAME?</v>
       </c>
@@ -15572,7 +15672,7 @@
       <c r="A69" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="8" t="e">
+      <c r="B69" s="8" t="e" vm="2">
         <f ca="1">B68&lt;B62</f>
         <v>#NAME?</v>
       </c>
@@ -15716,7 +15816,7 @@
         <f t="shared" si="11"/>
         <v>0.71561809876007787</v>
       </c>
-      <c r="G83" s="24" t="e">
+      <c r="G83" s="24" t="e" vm="1">
         <f ca="1">-_xludf._xlfn.T.INV(B62/2,B9)</f>
         <v>#NAME?</v>
       </c>
@@ -15759,7 +15859,7 @@
       </c>
       <c r="E86" s="113"/>
       <c r="F86" s="27"/>
-      <c r="H86" s="8" t="e">
+      <c r="H86" s="8" t="e" vm="1">
         <f ca="1">_xludf._xlfn.T.DIST.2T(ABS(D86),$B$6-$B$7)</f>
         <v>#NAME?</v>
       </c>
@@ -15783,7 +15883,7 @@
         <v>7.3650214258716753</v>
       </c>
       <c r="E87" s="113"/>
-      <c r="H87" s="8" t="e">
+      <c r="H87" s="8" t="e" vm="1">
         <f ca="1">_xludf._xlfn.T.DIST.2T(ABS(D87),$B$6-$B$7)</f>
         <v>#NAME?</v>
       </c>
@@ -15807,7 +15907,7 @@
         <v>0.67307484585404298</v>
       </c>
       <c r="E88" s="113"/>
-      <c r="H88" s="8" t="e">
+      <c r="H88" s="8" t="e" vm="1">
         <f ca="1">_xludf._xlfn.T.DIST.2T(ABS(D88),$B$6-$B$7)</f>
         <v>#NAME?</v>
       </c>
@@ -15970,7 +16070,7 @@
         <f>D107/D108</f>
         <v>25.372958232460952</v>
       </c>
-      <c r="F107" s="34" t="e">
+      <c r="F107" s="34" t="e" vm="1">
         <f ca="1">_xludf._xlfn.F.DIST.RT(E107,B107,B108)</f>
         <v>#NAME?</v>
       </c>
@@ -16061,7 +16161,7 @@
         <f>D86</f>
         <v>5.8161611259299466</v>
       </c>
-      <c r="E115" s="45" t="e">
+      <c r="E115" s="45" t="e" vm="1">
         <f ca="1">_xludf._xlfn.T.DIST.2T(D115,$B$9)</f>
         <v>#NAME?</v>
       </c>
@@ -16082,7 +16182,7 @@
         <f>D87</f>
         <v>7.3650214258716753</v>
       </c>
-      <c r="E116" s="45" t="e">
+      <c r="E116" s="45" t="e" vm="1">
         <f ca="1">_xludf._xlfn.T.DIST.2T(D116,$B$9)</f>
         <v>#NAME?</v>
       </c>
@@ -16103,7 +16203,7 @@
         <f>D88</f>
         <v>0.67307484585404298</v>
       </c>
-      <c r="E117" s="45" t="e">
+      <c r="E117" s="45" t="e" vm="1">
         <f ca="1">_xludf._xlfn.T.DIST.2T(D117,$B$9)</f>
         <v>#NAME?</v>
       </c>
@@ -16709,15 +16809,15 @@
       <c r="A21" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="70" t="e">
+      <c r="B21" s="70" t="e" vm="1">
         <f ca="1">_xludf._xlfn.STDEV.S(B$36:B$60)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C21" s="70" t="e">
+      <c r="C21" s="70" t="e" vm="1">
         <f ca="1">_xludf._xlfn.STDEV.S(C$36:C$60)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="70" t="e">
+      <c r="D21" s="70" t="e" vm="1">
         <f ca="1">_xludf._xlfn.STDEV.S(D$36:D$60)</f>
         <v>#NAME?</v>
       </c>
@@ -17031,29 +17131,29 @@
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
       <c r="Q34" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="116" t="s">
+      <c r="V34" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="116"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
     </row>
     <row r="35" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
@@ -17509,20 +17609,20 @@
         <f>Модель!I24</f>
         <v>2.4548448600085102</v>
       </c>
-      <c r="G48" s="119" t="str">
+      <c r="G48" s="120" t="str">
         <f>D35</f>
         <v>X2</v>
       </c>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119" t="str">
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120" t="str">
         <f>C35</f>
         <v>X1</v>
       </c>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
       <c r="Q48" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17535,20 +17635,20 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V48" s="119" t="str">
+      <c r="V48" s="120" t="str">
         <f>S35</f>
         <v>X2</v>
       </c>
-      <c r="W48" s="119"/>
-      <c r="X48" s="119"/>
-      <c r="Y48" s="119"/>
-      <c r="Z48" s="119" t="str">
+      <c r="W48" s="120"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
+      <c r="Z48" s="120" t="str">
         <f>R35</f>
         <v>X1</v>
       </c>
-      <c r="AA48" s="119"/>
-      <c r="AB48" s="119"/>
-      <c r="AC48" s="119"/>
+      <c r="AA48" s="120"/>
+      <c r="AB48" s="120"/>
+      <c r="AC48" s="120"/>
     </row>
     <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="85">
@@ -17570,7 +17670,7 @@
         <f>B35</f>
         <v>Y</v>
       </c>
-      <c r="O49" s="120" t="str">
+      <c r="O49" s="119" t="str">
         <f>D35</f>
         <v>X2</v>
       </c>
@@ -17586,11 +17686,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U49" s="120" t="str">
+      <c r="U49" s="119" t="str">
         <f>Q35</f>
         <v>Y</v>
       </c>
-      <c r="AD49" s="121" t="str">
+      <c r="AD49" s="115" t="str">
         <f>S35</f>
         <v>X2</v>
       </c>
@@ -17612,7 +17712,7 @@
         <v>2.2671717284030137</v>
       </c>
       <c r="F50" s="118"/>
-      <c r="O50" s="120"/>
+      <c r="O50" s="119"/>
       <c r="Q50" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17625,8 +17725,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U50" s="120"/>
-      <c r="AD50" s="121"/>
+      <c r="U50" s="119"/>
+      <c r="AD50" s="115"/>
     </row>
     <row r="51" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="85">
@@ -17645,7 +17745,7 @@
         <v>2.6857417386022635</v>
       </c>
       <c r="F51" s="118"/>
-      <c r="O51" s="120"/>
+      <c r="O51" s="119"/>
       <c r="Q51" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17658,8 +17758,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U51" s="120"/>
-      <c r="AD51" s="121"/>
+      <c r="U51" s="119"/>
+      <c r="AD51" s="115"/>
     </row>
     <row r="52" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="85">
@@ -17678,7 +17778,7 @@
         <v>2.6946051989335689</v>
       </c>
       <c r="F52" s="118"/>
-      <c r="O52" s="120"/>
+      <c r="O52" s="119"/>
       <c r="Q52" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17691,8 +17791,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U52" s="120"/>
-      <c r="AD52" s="121"/>
+      <c r="U52" s="119"/>
+      <c r="AD52" s="115"/>
     </row>
     <row r="53" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="85">
@@ -17711,7 +17811,7 @@
         <v>2.4785664955938436</v>
       </c>
       <c r="F53" s="118"/>
-      <c r="O53" s="120"/>
+      <c r="O53" s="119"/>
       <c r="Q53" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17724,8 +17824,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U53" s="120"/>
-      <c r="AD53" s="121"/>
+      <c r="U53" s="119"/>
+      <c r="AD53" s="115"/>
     </row>
     <row r="54" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="85">
@@ -17744,7 +17844,7 @@
         <v>2.5415792439465807</v>
       </c>
       <c r="F54" s="118"/>
-      <c r="O54" s="120"/>
+      <c r="O54" s="119"/>
       <c r="Q54" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17757,8 +17857,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U54" s="120"/>
-      <c r="AD54" s="121"/>
+      <c r="U54" s="119"/>
+      <c r="AD54" s="115"/>
     </row>
     <row r="55" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="85">
@@ -17777,7 +17877,7 @@
         <v>2.6720978579357175</v>
       </c>
       <c r="F55" s="118"/>
-      <c r="O55" s="120"/>
+      <c r="O55" s="119"/>
       <c r="Q55" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17790,8 +17890,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U55" s="120"/>
-      <c r="AD55" s="121"/>
+      <c r="U55" s="119"/>
+      <c r="AD55" s="115"/>
     </row>
     <row r="56" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="85">
@@ -17810,7 +17910,7 @@
         <v>2.651278013998144</v>
       </c>
       <c r="F56" s="118"/>
-      <c r="O56" s="120"/>
+      <c r="O56" s="119"/>
       <c r="Q56" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17823,8 +17923,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U56" s="120"/>
-      <c r="AD56" s="121"/>
+      <c r="U56" s="119"/>
+      <c r="AD56" s="115"/>
     </row>
     <row r="57" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="85">
@@ -17843,7 +17943,7 @@
         <v>2.5314789170422549</v>
       </c>
       <c r="F57" s="118"/>
-      <c r="O57" s="120"/>
+      <c r="O57" s="119"/>
       <c r="Q57" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17856,8 +17956,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U57" s="120"/>
-      <c r="AD57" s="121"/>
+      <c r="U57" s="119"/>
+      <c r="AD57" s="115"/>
     </row>
     <row r="58" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="85">
@@ -17876,7 +17976,7 @@
         <v>2.5587085705331658</v>
       </c>
       <c r="F58" s="118"/>
-      <c r="O58" s="120"/>
+      <c r="O58" s="119"/>
       <c r="Q58" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17889,8 +17989,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U58" s="120"/>
-      <c r="AD58" s="121"/>
+      <c r="U58" s="119"/>
+      <c r="AD58" s="115"/>
     </row>
     <row r="59" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="85">
@@ -17909,7 +18009,7 @@
         <v>2.5751878449276608</v>
       </c>
       <c r="F59" s="118"/>
-      <c r="O59" s="120"/>
+      <c r="O59" s="119"/>
       <c r="Q59" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17922,8 +18022,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U59" s="120"/>
-      <c r="AD59" s="121"/>
+      <c r="U59" s="119"/>
+      <c r="AD59" s="115"/>
     </row>
     <row r="60" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="85">
@@ -17942,7 +18042,7 @@
         <v>2.6646419755561257</v>
       </c>
       <c r="F60" s="118"/>
-      <c r="O60" s="120"/>
+      <c r="O60" s="119"/>
       <c r="Q60" s="87" t="e">
         <f t="shared" ca="1" si="3"/>
         <v>#VALUE!</v>
@@ -17955,8 +18055,8 @@
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U60" s="120"/>
-      <c r="AD60" s="121"/>
+      <c r="U60" s="119"/>
+      <c r="AD60" s="115"/>
     </row>
     <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="85">
@@ -17976,9 +18076,9 @@
         <v>2.4727564493172123</v>
       </c>
       <c r="F61" s="118"/>
-      <c r="O61" s="120"/>
-      <c r="U61" s="120"/>
-      <c r="AD61" s="121"/>
+      <c r="O61" s="119"/>
+      <c r="U61" s="119"/>
+      <c r="AD61" s="115"/>
     </row>
     <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="85">
@@ -18015,16 +18115,16 @@
         <f>Модель!I39</f>
         <v>2.6560982020128319</v>
       </c>
-      <c r="G63" s="115" t="s">
+      <c r="G63" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="115"/>
-      <c r="L63" s="115"/>
-      <c r="M63" s="115"/>
-      <c r="N63" s="115"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
       <c r="Q63" t="s">
         <v>131</v>
       </c>
@@ -18084,15 +18184,15 @@
         <f>B92</f>
         <v>Y</v>
       </c>
-      <c r="Q65" s="73" t="e">
+      <c r="Q65" s="73" t="e" vm="2">
         <f t="shared" ref="Q65:Q89" ca="1" si="6">C93</f>
         <v>#NAME?</v>
       </c>
-      <c r="R65" s="73" t="e">
+      <c r="R65" s="73" t="e" vm="2">
         <f t="shared" ref="R65:R89" ca="1" si="7">D93</f>
         <v>#NAME?</v>
       </c>
-      <c r="S65" s="73" t="e">
+      <c r="S65" s="73" t="e" vm="2">
         <f t="shared" ref="S65:S89" ca="1" si="8">B93-$C$28</f>
         <v>#NAME?</v>
       </c>
@@ -18115,15 +18215,15 @@
         <v>2.4166405073382808</v>
       </c>
       <c r="F66" s="118"/>
-      <c r="Q66" s="73" t="e">
+      <c r="Q66" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R66" s="73" t="e">
+      <c r="R66" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S66" s="73" t="e">
+      <c r="S66" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18146,15 +18246,15 @@
         <v>2.5340261060561349</v>
       </c>
       <c r="F67" s="118"/>
-      <c r="Q67" s="73" t="e">
+      <c r="Q67" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R67" s="73" t="e">
+      <c r="R67" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S67" s="73" t="e">
+      <c r="S67" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18177,15 +18277,15 @@
         <v>2.4424797690644486</v>
       </c>
       <c r="F68" s="118"/>
-      <c r="Q68" s="73" t="e">
+      <c r="Q68" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R68" s="73" t="e">
+      <c r="R68" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S68" s="73" t="e">
+      <c r="S68" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18208,15 +18308,15 @@
         <v>2.2174839442139063</v>
       </c>
       <c r="F69" s="118"/>
-      <c r="Q69" s="73" t="e">
+      <c r="Q69" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R69" s="73" t="e">
+      <c r="R69" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S69" s="73" t="e">
+      <c r="S69" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18227,15 +18327,15 @@
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
       <c r="F70" s="118"/>
-      <c r="Q70" s="73" t="e">
+      <c r="Q70" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R70" s="73" t="e">
+      <c r="R70" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S70" s="73" t="e">
+      <c r="S70" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18246,15 +18346,15 @@
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
       <c r="F71" s="118"/>
-      <c r="Q71" s="73" t="e">
+      <c r="Q71" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R71" s="73" t="e">
+      <c r="R71" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S71" s="73" t="e">
+      <c r="S71" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18265,89 +18365,89 @@
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="F72" s="118"/>
-      <c r="Q72" s="73" t="e">
+      <c r="Q72" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R72" s="73" t="e">
+      <c r="R72" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S72" s="73" t="e">
+      <c r="S72" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F73" s="118"/>
-      <c r="Q73" s="73" t="e">
+      <c r="Q73" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R73" s="73" t="e">
+      <c r="R73" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S73" s="73" t="e">
+      <c r="S73" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F74" s="118"/>
-      <c r="Q74" s="73" t="e">
+      <c r="Q74" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R74" s="73" t="e">
+      <c r="R74" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S74" s="73" t="e">
+      <c r="S74" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F75" s="118"/>
-      <c r="Q75" s="73" t="e">
+      <c r="Q75" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R75" s="73" t="e">
+      <c r="R75" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S75" s="73" t="e">
+      <c r="S75" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F76" s="118"/>
-      <c r="Q76" s="73" t="e">
+      <c r="Q76" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R76" s="73" t="e">
+      <c r="R76" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S76" s="73" t="e">
+      <c r="S76" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="Q77" s="73" t="e">
+      <c r="Q77" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R77" s="73" t="e">
+      <c r="R77" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S77" s="73" t="e">
+      <c r="S77" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
@@ -18357,202 +18457,202 @@
         <f>B92</f>
         <v>Y</v>
       </c>
-      <c r="O78" s="120" t="str">
+      <c r="O78" s="119" t="str">
         <f>D92</f>
         <v>X2</v>
       </c>
-      <c r="Q78" s="73" t="e">
+      <c r="Q78" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R78" s="73" t="e">
+      <c r="R78" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S78" s="73" t="e">
+      <c r="S78" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F79" s="118"/>
-      <c r="O79" s="120"/>
-      <c r="Q79" s="73" t="e">
+      <c r="O79" s="119"/>
+      <c r="Q79" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R79" s="73" t="e">
+      <c r="R79" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S79" s="73" t="e">
+      <c r="S79" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F80" s="118"/>
-      <c r="O80" s="120"/>
-      <c r="Q80" s="73" t="e">
+      <c r="O80" s="119"/>
+      <c r="Q80" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R80" s="73" t="e">
+      <c r="R80" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S80" s="73" t="e">
+      <c r="S80" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F81" s="118"/>
-      <c r="O81" s="120"/>
-      <c r="Q81" s="73" t="e">
+      <c r="O81" s="119"/>
+      <c r="Q81" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R81" s="73" t="e">
+      <c r="R81" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S81" s="73" t="e">
+      <c r="S81" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F82" s="118"/>
-      <c r="O82" s="120"/>
-      <c r="Q82" s="73" t="e">
+      <c r="O82" s="119"/>
+      <c r="Q82" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R82" s="73" t="e">
+      <c r="R82" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S82" s="73" t="e">
+      <c r="S82" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F83" s="118"/>
-      <c r="O83" s="120"/>
-      <c r="Q83" s="73" t="e">
+      <c r="O83" s="119"/>
+      <c r="Q83" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R83" s="73" t="e">
+      <c r="R83" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S83" s="73" t="e">
+      <c r="S83" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F84" s="118"/>
-      <c r="O84" s="120"/>
-      <c r="Q84" s="73" t="e">
+      <c r="O84" s="119"/>
+      <c r="Q84" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R84" s="73" t="e">
+      <c r="R84" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S84" s="73" t="e">
+      <c r="S84" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F85" s="118"/>
-      <c r="O85" s="120"/>
-      <c r="Q85" s="73" t="e">
+      <c r="O85" s="119"/>
+      <c r="Q85" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R85" s="73" t="e">
+      <c r="R85" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S85" s="73" t="e">
+      <c r="S85" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F86" s="118"/>
-      <c r="O86" s="120"/>
-      <c r="Q86" s="73" t="e">
+      <c r="O86" s="119"/>
+      <c r="Q86" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R86" s="73" t="e">
+      <c r="R86" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S86" s="73" t="e">
+      <c r="S86" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F87" s="118"/>
-      <c r="O87" s="120"/>
-      <c r="Q87" s="73" t="e">
+      <c r="O87" s="119"/>
+      <c r="Q87" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R87" s="73" t="e">
+      <c r="R87" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S87" s="73" t="e">
+      <c r="S87" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F88" s="118"/>
-      <c r="O88" s="120"/>
-      <c r="Q88" s="73" t="e">
+      <c r="O88" s="119"/>
+      <c r="Q88" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R88" s="73" t="e">
+      <c r="R88" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S88" s="73" t="e">
+      <c r="S88" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F89" s="118"/>
-      <c r="O89" s="120"/>
-      <c r="Q89" s="73" t="e">
+      <c r="O89" s="119"/>
+      <c r="Q89" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="6"/>
         <v>#NAME?</v>
       </c>
-      <c r="R89" s="73" t="e">
+      <c r="R89" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
-      <c r="S89" s="73" t="e">
+      <c r="S89" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="8"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F90" s="118"/>
-      <c r="O90" s="120"/>
+      <c r="O90" s="119"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -18596,15 +18696,15 @@
         <f t="shared" ref="A93:A117" si="9">A36</f>
         <v>1</v>
       </c>
-      <c r="B93" s="73" t="e">
+      <c r="B93" s="73" t="e" vm="2">
         <f t="shared" ref="B93:D117" ca="1" si="10">(B36-B$20)/B$21</f>
         <v>#NAME?</v>
       </c>
-      <c r="C93" s="73" t="e">
+      <c r="C93" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D93" s="73" t="e">
+      <c r="D93" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18629,15 +18729,15 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B94" s="73" t="e">
+      <c r="B94" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C94" s="73" t="e">
+      <c r="C94" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D94" s="73" t="e">
+      <c r="D94" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18662,15 +18762,15 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="B95" s="73" t="e">
+      <c r="B95" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C95" s="73" t="e">
+      <c r="C95" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D95" s="73" t="e">
+      <c r="D95" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18695,15 +18795,15 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B96" s="73" t="e">
+      <c r="B96" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C96" s="73" t="e">
+      <c r="C96" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D96" s="73" t="e">
+      <c r="D96" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18728,15 +18828,15 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="B97" s="73" t="e">
+      <c r="B97" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C97" s="73" t="e">
+      <c r="C97" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D97" s="73" t="e">
+      <c r="D97" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18761,15 +18861,15 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B98" s="73" t="e">
+      <c r="B98" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C98" s="73" t="e">
+      <c r="C98" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D98" s="73" t="e">
+      <c r="D98" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18794,15 +18894,15 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="B99" s="73" t="e">
+      <c r="B99" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C99" s="73" t="e">
+      <c r="C99" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D99" s="73" t="e">
+      <c r="D99" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18827,15 +18927,15 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="B100" s="73" t="e">
+      <c r="B100" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C100" s="73" t="e">
+      <c r="C100" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D100" s="73" t="e">
+      <c r="D100" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18860,15 +18960,15 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="B101" s="73" t="e">
+      <c r="B101" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C101" s="73" t="e">
+      <c r="C101" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D101" s="73" t="e">
+      <c r="D101" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18893,15 +18993,15 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B102" s="73" t="e">
+      <c r="B102" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C102" s="73" t="e">
+      <c r="C102" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D102" s="73" t="e">
+      <c r="D102" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18926,15 +19026,15 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="B103" s="73" t="e">
+      <c r="B103" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C103" s="73" t="e">
+      <c r="C103" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D103" s="73" t="e">
+      <c r="D103" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18959,15 +19059,15 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="B104" s="73" t="e">
+      <c r="B104" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C104" s="73" t="e">
+      <c r="C104" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D104" s="73" t="e">
+      <c r="D104" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -18992,15 +19092,15 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="B105" s="73" t="e">
+      <c r="B105" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C105" s="73" t="e">
+      <c r="C105" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D105" s="73" t="e">
+      <c r="D105" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19025,15 +19125,15 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="B106" s="73" t="e">
+      <c r="B106" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C106" s="73" t="e">
+      <c r="C106" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D106" s="73" t="e">
+      <c r="D106" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19058,15 +19158,15 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="B107" s="73" t="e">
+      <c r="B107" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C107" s="73" t="e">
+      <c r="C107" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D107" s="73" t="e">
+      <c r="D107" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19091,15 +19191,15 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="B108" s="73" t="e">
+      <c r="B108" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C108" s="73" t="e">
+      <c r="C108" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D108" s="73" t="e">
+      <c r="D108" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19124,15 +19224,15 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="B109" s="73" t="e">
+      <c r="B109" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C109" s="73" t="e">
+      <c r="C109" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D109" s="73" t="e">
+      <c r="D109" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19157,15 +19257,15 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="B110" s="73" t="e">
+      <c r="B110" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C110" s="73" t="e">
+      <c r="C110" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D110" s="73" t="e">
+      <c r="D110" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19190,15 +19290,15 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="B111" s="73" t="e">
+      <c r="B111" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C111" s="73" t="e">
+      <c r="C111" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D111" s="73" t="e">
+      <c r="D111" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19223,15 +19323,15 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="B112" s="73" t="e">
+      <c r="B112" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C112" s="73" t="e">
+      <c r="C112" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D112" s="73" t="e">
+      <c r="D112" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19256,15 +19356,15 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="B113" s="73" t="e">
+      <c r="B113" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C113" s="73" t="e">
+      <c r="C113" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D113" s="73" t="e">
+      <c r="D113" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19289,15 +19389,15 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="B114" s="73" t="e">
+      <c r="B114" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C114" s="73" t="e">
+      <c r="C114" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D114" s="73" t="e">
+      <c r="D114" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19322,15 +19422,15 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="B115" s="73" t="e">
+      <c r="B115" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C115" s="73" t="e">
+      <c r="C115" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D115" s="73" t="e">
+      <c r="D115" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19355,15 +19455,15 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="B116" s="73" t="e">
+      <c r="B116" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C116" s="73" t="e">
+      <c r="C116" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D116" s="73" t="e">
+      <c r="D116" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19388,15 +19488,15 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="B117" s="73" t="e">
+      <c r="B117" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="C117" s="73" t="e">
+      <c r="C117" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
-      <c r="D117" s="73" t="e">
+      <c r="D117" s="73" t="e" vm="2">
         <f t="shared" ca="1" si="10"/>
         <v>#NAME?</v>
       </c>
@@ -19418,12 +19518,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AD49:AD61"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="F65:F76"/>
-    <mergeCell ref="F78:F90"/>
-    <mergeCell ref="O78:O90"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="V34:AC34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="F36:F47"/>
+    <mergeCell ref="U36:U47"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="V48:Y48"/>
@@ -19431,12 +19531,12 @@
     <mergeCell ref="F49:F61"/>
     <mergeCell ref="O49:O61"/>
     <mergeCell ref="U49:U61"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="V34:AC34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="F36:F47"/>
-    <mergeCell ref="U36:U47"/>
+    <mergeCell ref="AD49:AD61"/>
+    <mergeCell ref="G63:N63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="F65:F76"/>
+    <mergeCell ref="F78:F90"/>
+    <mergeCell ref="O78:O90"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -19453,7 +19553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
